--- a/banhang24/Template/ExportExcel/Download/0973474985/28fef5a1-f0f2-4b94-a4ad-081b227f3b77/BaoCaoDoanhThuSuaChuaTongHop.xlsx
+++ b/banhang24/Template/ExportExcel/Download/0973474985/28fef5a1-f0f2-4b94-a4ad-081b227f3b77/BaoCaoDoanhThuSuaChuaTongHop.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="0"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="24240" windowHeight="13020" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Mã tiếp nhận</t>
   </si>
@@ -76,7 +87,7 @@
     <t>BÁO CÁO DOANH THU SỬA CHỮA TỔNG HỢP</t>
   </si>
   <si>
-    <t>Từ ngày 01/01/2022 đến ngày 31/12/2022</t>
+    <t>Từ ngày 01/10/2023 đến ngày 31/10/2023</t>
   </si>
   <si>
     <t>Ngày lập hóa đơn</t>
@@ -88,109 +99,34 @@
     <t>Chi nhánh: Ssoft CN Cầu Giấy</t>
   </si>
   <si>
-    <t>PTN7132297</t>
-  </si>
-  <si>
-    <t>10C44823</t>
-  </si>
-  <si>
-    <t>KH0806024</t>
-  </si>
-  <si>
-    <t>CX_ChuaDauCach_2201</t>
-  </si>
-  <si>
-    <t>thuy</t>
-  </si>
-  <si>
-    <t>HDSC0000000617</t>
-  </si>
-  <si>
-    <t>xu ly bg: them + bot hang
-xu lys 1 phan
-!!! chua thanh toan (so su coc 2trieu)</t>
+    <t>PTN7132520</t>
+  </si>
+  <si>
+    <t>30A03980</t>
+  </si>
+  <si>
+    <t>KH0765028</t>
+  </si>
+  <si>
+    <t>Bảo Vy update Cus - check douple</t>
+  </si>
+  <si>
+    <t>Nguyễn Thảo Phương</t>
+  </si>
+  <si>
+    <t>CG.01_HDSC.202310.036</t>
+  </si>
+  <si>
+    <t>no 122</t>
   </si>
   <si>
     <t>Ssoft CN Cầu Giấy</t>
-  </si>
-  <si>
-    <t>PTN7132320</t>
-  </si>
-  <si>
-    <t>29A-1220</t>
-  </si>
-  <si>
-    <t>KH0750209</t>
-  </si>
-  <si>
-    <t>Lê Đức Huy&lt;Bs.Lợi&gt;</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>HDSC0000000734</t>
-  </si>
-  <si>
-    <t>tt nhieulan - hoadon co baohiem
-test hoahong thucthu + doanhthu</t>
-  </si>
-  <si>
-    <t>PTN7132414</t>
-  </si>
-  <si>
-    <t>30A62693</t>
-  </si>
-  <si>
-    <t>KH0764834</t>
-  </si>
-  <si>
-    <t>TGT_Nguyen Duc Thang</t>
-  </si>
-  <si>
-    <t>HDSC0000000884</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>PTN7132421</t>
-  </si>
-  <si>
-    <t>30A33928</t>
-  </si>
-  <si>
-    <t>KH0765028</t>
-  </si>
-  <si>
-    <t>Bảo Vy update Cus - check douple</t>
-  </si>
-  <si>
-    <t>HDSC0000000903</t>
-  </si>
-  <si>
-    <t>PTN7132435</t>
-  </si>
-  <si>
-    <t>CheckBaoDuong_X2</t>
-  </si>
-  <si>
-    <t>KH0743400</t>
-  </si>
-  <si>
-    <t>Vũ Phương Thanh</t>
-  </si>
-  <si>
-    <t>HDSC0000000941</t>
-  </si>
-  <si>
-    <t>hdsc - check tra hang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
@@ -198,7 +134,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -211,7 +147,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -219,7 +155,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -292,9 +228,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,34 +589,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:R1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42857142857143" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7142857142857" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7142857142857" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="16.7142857142857" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="11.2857142857143" customWidth="1"/>
-    <col min="13" max="13" width="10.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.14285714285714" customWidth="1"/>
-    <col min="16" max="16" width="9.71428571428571" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.125" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.125" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -708,7 +642,7 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:18" ht="15">
+    <row r="2" spans="1:18" ht="14.25">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -730,7 +664,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" ht="15">
+    <row r="3" spans="1:18" ht="14.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -808,12 +742,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15">
+    <row r="6" spans="1:18" ht="14.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>44601.5888888889</v>
+        <v>45215.4680555556</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
@@ -831,22 +765,22 @@
         <v>27</v>
       </c>
       <c r="H6" s="2">
-        <v>44603.5909953704</v>
+        <v>45215.4773171643</v>
       </c>
       <c r="I6" s="3">
-        <v>11490000</v>
+        <v>1585000</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>505560</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>10984440</v>
+        <v>1485000</v>
       </c>
       <c r="M6" s="3">
-        <v>1149000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -855,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="3">
-        <v>10984440</v>
+        <v>1485000</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>28</v>
@@ -865,276 +799,58 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44641.475</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="2">
-        <v>44648.4071918171</v>
-      </c>
-      <c r="I7" s="3">
-        <v>10370000</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>10370000</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>5609572.42827559</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>4760427.57172441</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44774.7013888889</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="2">
-        <v>44774.708403669</v>
-      </c>
-      <c r="I8" s="3">
-        <v>13340000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>13340000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3417054.34027316</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>9922945.65972684</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="2">
-        <v>44820.38125</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="2">
-        <v>44820.3833948727</v>
-      </c>
-      <c r="I9" s="3">
-        <v>12800000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1280000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>35000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>11485000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>11485000</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2">
-        <v>44880.6659722222</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="2">
-        <v>44882.7228831019</v>
-      </c>
-      <c r="I10" s="3">
-        <v>10220000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>10220000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>2545344.22513924</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>7674655.77486076</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15">
-      <c r="A11" s="8" t="s">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="5">
-        <f>SUM(I$6:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <f>SUM(J$6:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <f>SUM(K$6:K10)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <f>SUM(L$6:L10)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <f>SUM(M$6:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="5">
-        <f>SUM(N$6:N10)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <f>SUM(O$6:O10)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <f>SUM(P$6:P10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="5">
+        <f>SUM(I$6:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <f>SUM(J$6:J6)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <f>SUM(K$6:K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <f>SUM(L$6:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <f>SUM(M$6:M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <f>SUM(N$6:N6)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <f>SUM(O$6:O6)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <f>SUM(P$6:P6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
